--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.34563381213395</v>
+        <v>0.4675276666666666</v>
       </c>
       <c r="H2">
-        <v>2.34563381213395</v>
+        <v>1.402583</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1632394805509195</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1632394805509196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06860853772263389</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N2">
-        <v>0.06860853772263389</v>
+        <v>0.207911</v>
       </c>
       <c r="O2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q2">
-        <v>0.1609305058832777</v>
+        <v>0.03240138156811111</v>
       </c>
       <c r="R2">
-        <v>0.1609305058832777</v>
+        <v>0.291612434113</v>
       </c>
       <c r="S2">
-        <v>0.0002676987190607325</v>
+        <v>3.010362668961106E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002676987190607325</v>
+        <v>3.010755612166448E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.34563381213395</v>
+        <v>0.4675276666666666</v>
       </c>
       <c r="H3">
-        <v>2.34563381213395</v>
+        <v>1.402583</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1632394805509195</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1632394805509196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>94.3348072251292</v>
+        <v>0.311428</v>
       </c>
       <c r="N3">
-        <v>94.3348072251292</v>
+        <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q3">
-        <v>221.2749134884011</v>
+        <v>0.1456012061746667</v>
       </c>
       <c r="R3">
-        <v>221.2749134884011</v>
+        <v>1.310410855572</v>
       </c>
       <c r="S3">
-        <v>0.3680781998167726</v>
+        <v>0.0001352758476370975</v>
       </c>
       <c r="T3">
-        <v>0.3680781998167726</v>
+        <v>0.0001352935052189311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.34563381213395</v>
+        <v>0.4675276666666666</v>
       </c>
       <c r="H4">
-        <v>2.34563381213395</v>
+        <v>1.402583</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1632394805509195</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1632394805509196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.750825565473</v>
+        <v>168.931335</v>
       </c>
       <c r="N4">
-        <v>161.750825565473</v>
+        <v>506.794005</v>
       </c>
       <c r="O4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q4">
-        <v>379.4082055869541</v>
+        <v>78.980072879435</v>
       </c>
       <c r="R4">
-        <v>379.4082055869541</v>
+        <v>710.8206559149149</v>
       </c>
       <c r="S4">
-        <v>0.6311239132649276</v>
+        <v>0.07337917443065968</v>
       </c>
       <c r="T4">
-        <v>0.6311239132649276</v>
+        <v>0.0733887526280986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4675276666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.402583</v>
+      </c>
+      <c r="I5">
+        <v>0.1632394805509195</v>
+      </c>
+      <c r="J5">
+        <v>0.1632394805509196</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>206.345828</v>
+      </c>
+      <c r="N5">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O5">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P5">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q5">
+        <v>96.47238349124132</v>
+      </c>
+      <c r="R5">
+        <v>868.2514514211719</v>
+      </c>
+      <c r="S5">
+        <v>0.08963101194843985</v>
+      </c>
+      <c r="T5">
+        <v>0.08964271150128648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4675276666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.402583</v>
+      </c>
+      <c r="I6">
+        <v>0.1632394805509195</v>
+      </c>
+      <c r="J6">
+        <v>0.1632394805509196</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1471425</v>
+      </c>
+      <c r="N6">
+        <v>0.294285</v>
+      </c>
+      <c r="O6">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P6">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q6">
+        <v>0.06879318969249999</v>
+      </c>
+      <c r="R6">
+        <v>0.412759138155</v>
+      </c>
+      <c r="S6">
+        <v>6.391469749329419E-05</v>
+      </c>
+      <c r="T6">
+        <v>4.261536019385233E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.396532333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.189597</v>
+      </c>
+      <c r="I7">
+        <v>0.8367605194490804</v>
+      </c>
+      <c r="J7">
+        <v>0.8367605194490806</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.06930366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.207911</v>
+      </c>
+      <c r="O7">
+        <v>0.0001844138843618826</v>
+      </c>
+      <c r="P7">
+        <v>0.0001844379559408913</v>
+      </c>
+      <c r="Q7">
+        <v>0.1660884779852222</v>
+      </c>
+      <c r="R7">
+        <v>1.494796301867</v>
+      </c>
+      <c r="S7">
+        <v>0.0001543102576722715</v>
+      </c>
+      <c r="T7">
+        <v>0.0001543303998192268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.34563381213395</v>
-      </c>
-      <c r="H5">
-        <v>2.34563381213395</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.135881998969694</v>
-      </c>
-      <c r="N5">
-        <v>0.135881998969694</v>
-      </c>
-      <c r="O5">
-        <v>0.0005301881992392126</v>
-      </c>
-      <c r="P5">
-        <v>0.0005301881992392126</v>
-      </c>
-      <c r="Q5">
-        <v>0.3187294112436648</v>
-      </c>
-      <c r="R5">
-        <v>0.3187294112436648</v>
-      </c>
-      <c r="S5">
-        <v>0.0005301881992392126</v>
-      </c>
-      <c r="T5">
-        <v>0.0005301881992392126</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.396532333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.189597</v>
+      </c>
+      <c r="I8">
+        <v>0.8367605194490804</v>
+      </c>
+      <c r="J8">
+        <v>0.8367605194490806</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.311428</v>
+      </c>
+      <c r="N8">
+        <v>0.934284</v>
+      </c>
+      <c r="O8">
+        <v>0.000828695651202472</v>
+      </c>
+      <c r="P8">
+        <v>0.000828803821001677</v>
+      </c>
+      <c r="Q8">
+        <v>0.7463472715053333</v>
+      </c>
+      <c r="R8">
+        <v>6.717125443548</v>
+      </c>
+      <c r="S8">
+        <v>0.0006934198035653744</v>
+      </c>
+      <c r="T8">
+        <v>0.0006935103157827461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.396532333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.189597</v>
+      </c>
+      <c r="I9">
+        <v>0.8367605194490804</v>
+      </c>
+      <c r="J9">
+        <v>0.8367605194490806</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>168.931335</v>
+      </c>
+      <c r="N9">
+        <v>506.794005</v>
+      </c>
+      <c r="O9">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P9">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q9">
+        <v>404.8494064406651</v>
+      </c>
+      <c r="R9">
+        <v>3643.644657965985</v>
+      </c>
+      <c r="S9">
+        <v>0.3761393745319511</v>
+      </c>
+      <c r="T9">
+        <v>0.3761884720752497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.396532333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.189597</v>
+      </c>
+      <c r="I10">
+        <v>0.8367605194490804</v>
+      </c>
+      <c r="J10">
+        <v>0.8367605194490806</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>206.345828</v>
+      </c>
+      <c r="N10">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P10">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q10">
+        <v>494.5144486504387</v>
+      </c>
+      <c r="R10">
+        <v>4450.630037853947</v>
+      </c>
+      <c r="S10">
+        <v>0.4594457900968908</v>
+      </c>
+      <c r="T10">
+        <v>0.4595057616422807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.396532333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.189597</v>
+      </c>
+      <c r="I11">
+        <v>0.8367605194490804</v>
+      </c>
+      <c r="J11">
+        <v>0.8367605194490806</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1471425</v>
+      </c>
+      <c r="N11">
+        <v>0.294285</v>
+      </c>
+      <c r="O11">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P11">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q11">
+        <v>0.3526317588575</v>
+      </c>
+      <c r="R11">
+        <v>2.115790553145</v>
+      </c>
+      <c r="S11">
+        <v>0.0003276247590008545</v>
+      </c>
+      <c r="T11">
+        <v>0.0002184450159481757</v>
       </c>
     </row>
   </sheetData>
